--- a/Trajectories/Cancelled Flight.xlsx
+++ b/Trajectories/Cancelled Flight.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4837,6 +4837,534 @@
         <v>34</v>
       </c>
     </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>200610</v>
+      </c>
+      <c r="B102">
+        <v>14098</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>335</v>
+      </c>
+      <c r="E102">
+        <v>269</v>
+      </c>
+      <c r="F102">
+        <v>230</v>
+      </c>
+      <c r="G102">
+        <v>154</v>
+      </c>
+      <c r="H102">
+        <v>156</v>
+      </c>
+      <c r="I102">
+        <v>113</v>
+      </c>
+      <c r="J102">
+        <v>218</v>
+      </c>
+      <c r="K102">
+        <v>451</v>
+      </c>
+      <c r="L102">
+        <v>126</v>
+      </c>
+      <c r="M102">
+        <v>57</v>
+      </c>
+      <c r="N102">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
+        <v>200611</v>
+      </c>
+      <c r="B103">
+        <v>15203</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>362</v>
+      </c>
+      <c r="E103">
+        <v>250</v>
+      </c>
+      <c r="F103">
+        <v>235</v>
+      </c>
+      <c r="G103">
+        <v>162</v>
+      </c>
+      <c r="H103">
+        <v>179</v>
+      </c>
+      <c r="I103">
+        <v>115</v>
+      </c>
+      <c r="J103">
+        <v>219</v>
+      </c>
+      <c r="K103">
+        <v>438</v>
+      </c>
+      <c r="L103">
+        <v>138</v>
+      </c>
+      <c r="M103">
+        <v>37</v>
+      </c>
+      <c r="N103">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
+        <v>200612</v>
+      </c>
+      <c r="B104">
+        <v>14835</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>357</v>
+      </c>
+      <c r="E104">
+        <v>282</v>
+      </c>
+      <c r="F104">
+        <v>237</v>
+      </c>
+      <c r="G104">
+        <v>152</v>
+      </c>
+      <c r="H104">
+        <v>184</v>
+      </c>
+      <c r="I104">
+        <v>90</v>
+      </c>
+      <c r="J104">
+        <v>198</v>
+      </c>
+      <c r="K104">
+        <v>450</v>
+      </c>
+      <c r="L104">
+        <v>128</v>
+      </c>
+      <c r="M104">
+        <v>80</v>
+      </c>
+      <c r="N104">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
+        <v>200613</v>
+      </c>
+      <c r="B105">
+        <v>11550</v>
+      </c>
+      <c r="C105">
+        <v>28</v>
+      </c>
+      <c r="D105">
+        <v>337</v>
+      </c>
+      <c r="E105">
+        <v>228</v>
+      </c>
+      <c r="F105">
+        <v>237</v>
+      </c>
+      <c r="G105">
+        <v>151</v>
+      </c>
+      <c r="H105">
+        <v>146</v>
+      </c>
+      <c r="I105">
+        <v>81</v>
+      </c>
+      <c r="J105">
+        <v>162</v>
+      </c>
+      <c r="K105">
+        <v>446</v>
+      </c>
+      <c r="L105">
+        <v>88</v>
+      </c>
+      <c r="M105">
+        <v>65</v>
+      </c>
+      <c r="N105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
+        <v>200614</v>
+      </c>
+      <c r="B106">
+        <v>13051</v>
+      </c>
+      <c r="C106">
+        <v>23</v>
+      </c>
+      <c r="D106">
+        <v>365</v>
+      </c>
+      <c r="E106">
+        <v>245</v>
+      </c>
+      <c r="F106">
+        <v>236</v>
+      </c>
+      <c r="G106">
+        <v>155</v>
+      </c>
+      <c r="H106">
+        <v>161</v>
+      </c>
+      <c r="I106">
+        <v>111</v>
+      </c>
+      <c r="J106">
+        <v>167</v>
+      </c>
+      <c r="K106">
+        <v>446</v>
+      </c>
+      <c r="L106">
+        <v>125</v>
+      </c>
+      <c r="M106">
+        <v>89</v>
+      </c>
+      <c r="N106">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
+        <v>200615</v>
+      </c>
+      <c r="B107">
+        <v>13902</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>363</v>
+      </c>
+      <c r="E107">
+        <v>267</v>
+      </c>
+      <c r="F107">
+        <v>229</v>
+      </c>
+      <c r="G107">
+        <v>157</v>
+      </c>
+      <c r="H107">
+        <v>164</v>
+      </c>
+      <c r="I107">
+        <v>132</v>
+      </c>
+      <c r="J107">
+        <v>159</v>
+      </c>
+      <c r="K107">
+        <v>440</v>
+      </c>
+      <c r="L107">
+        <v>130</v>
+      </c>
+      <c r="M107">
+        <v>87</v>
+      </c>
+      <c r="N107">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
+        <v>200616</v>
+      </c>
+      <c r="B108">
+        <v>14160</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>354</v>
+      </c>
+      <c r="E108">
+        <v>262</v>
+      </c>
+      <c r="F108">
+        <v>230</v>
+      </c>
+      <c r="G108">
+        <v>146</v>
+      </c>
+      <c r="H108">
+        <v>149</v>
+      </c>
+      <c r="I108">
+        <v>101</v>
+      </c>
+      <c r="J108">
+        <v>238</v>
+      </c>
+      <c r="K108">
+        <v>453</v>
+      </c>
+      <c r="L108">
+        <v>111</v>
+      </c>
+      <c r="M108">
+        <v>43</v>
+      </c>
+      <c r="N108">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
+        <v>200617</v>
+      </c>
+      <c r="B109">
+        <v>14520</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>331</v>
+      </c>
+      <c r="E109">
+        <v>262</v>
+      </c>
+      <c r="F109">
+        <v>227</v>
+      </c>
+      <c r="G109">
+        <v>141</v>
+      </c>
+      <c r="H109">
+        <v>157</v>
+      </c>
+      <c r="I109">
+        <v>123</v>
+      </c>
+      <c r="J109">
+        <v>239</v>
+      </c>
+      <c r="K109">
+        <v>436</v>
+      </c>
+      <c r="L109">
+        <v>105</v>
+      </c>
+      <c r="M109">
+        <v>63</v>
+      </c>
+      <c r="N109">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110">
+        <v>200618</v>
+      </c>
+      <c r="B110">
+        <v>15603</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>390</v>
+      </c>
+      <c r="E110">
+        <v>273</v>
+      </c>
+      <c r="F110">
+        <v>238</v>
+      </c>
+      <c r="G110">
+        <v>154</v>
+      </c>
+      <c r="H110">
+        <v>192</v>
+      </c>
+      <c r="I110">
+        <v>129</v>
+      </c>
+      <c r="J110">
+        <v>257</v>
+      </c>
+      <c r="K110">
+        <v>465</v>
+      </c>
+      <c r="L110">
+        <v>127</v>
+      </c>
+      <c r="M110">
+        <v>88</v>
+      </c>
+      <c r="N110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111">
+        <v>200619</v>
+      </c>
+      <c r="B111">
+        <v>15335</v>
+      </c>
+      <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>392</v>
+      </c>
+      <c r="E111">
+        <v>276</v>
+      </c>
+      <c r="F111">
+        <v>242</v>
+      </c>
+      <c r="G111">
+        <v>157</v>
+      </c>
+      <c r="H111">
+        <v>188</v>
+      </c>
+      <c r="I111">
+        <v>135</v>
+      </c>
+      <c r="J111">
+        <v>243</v>
+      </c>
+      <c r="K111">
+        <v>474</v>
+      </c>
+      <c r="L111">
+        <v>129</v>
+      </c>
+      <c r="M111">
+        <v>96</v>
+      </c>
+      <c r="N111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112">
+        <v>200620</v>
+      </c>
+      <c r="B112">
+        <v>12646</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>366</v>
+      </c>
+      <c r="E112">
+        <v>240</v>
+      </c>
+      <c r="F112">
+        <v>251</v>
+      </c>
+      <c r="G112">
+        <v>156</v>
+      </c>
+      <c r="H112">
+        <v>158</v>
+      </c>
+      <c r="I112">
+        <v>138</v>
+      </c>
+      <c r="J112">
+        <v>190</v>
+      </c>
+      <c r="K112">
+        <v>460</v>
+      </c>
+      <c r="L112">
+        <v>108</v>
+      </c>
+      <c r="M112">
+        <v>110</v>
+      </c>
+      <c r="N112">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
+        <v>200621</v>
+      </c>
+      <c r="B113">
+        <v>12240</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>394</v>
+      </c>
+      <c r="E113">
+        <v>224</v>
+      </c>
+      <c r="F113">
+        <v>249</v>
+      </c>
+      <c r="G113">
+        <v>149</v>
+      </c>
+      <c r="H113">
+        <v>167</v>
+      </c>
+      <c r="I113">
+        <v>92</v>
+      </c>
+      <c r="J113">
+        <v>202</v>
+      </c>
+      <c r="K113">
+        <v>414</v>
+      </c>
+      <c r="L113">
+        <v>114</v>
+      </c>
+      <c r="M113">
+        <v>79</v>
+      </c>
+      <c r="N113">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Trajectories/Cancelled Flight.xlsx
+++ b/Trajectories/Cancelled Flight.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,527 +1803,527 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>200402</v>
+        <v>200401</v>
       </c>
       <c r="B33">
-        <v>17392</v>
+        <v>19696</v>
       </c>
       <c r="C33">
-        <v>675</v>
+        <v>1014</v>
       </c>
       <c r="D33">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="E33">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F33">
-        <v>490</v>
+        <v>571</v>
       </c>
       <c r="G33">
-        <v>450</v>
+        <v>642</v>
       </c>
       <c r="H33">
-        <v>348</v>
+        <v>509</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J33">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="K33">
-        <v>780</v>
+        <v>909</v>
       </c>
       <c r="L33">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N33">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>200403</v>
+        <v>200402</v>
       </c>
       <c r="B34">
-        <v>16406</v>
+        <v>17392</v>
       </c>
       <c r="C34">
-        <v>938</v>
+        <v>675</v>
       </c>
       <c r="D34">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E34">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F34">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="G34">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="H34">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="I34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J34">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="K34">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="L34">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>200404</v>
+        <v>200403</v>
       </c>
       <c r="B35">
-        <v>13954</v>
+        <v>16406</v>
       </c>
       <c r="C35">
-        <v>967</v>
+        <v>938</v>
       </c>
       <c r="D35">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="E35">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="F35">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="G35">
-        <v>249</v>
+        <v>409</v>
       </c>
       <c r="H35">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="I35">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J35">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="K35">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="L35">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N35">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>200405</v>
+        <v>200404</v>
       </c>
       <c r="B36">
-        <v>13983</v>
+        <v>13954</v>
       </c>
       <c r="C36">
-        <v>1037</v>
+        <v>967</v>
       </c>
       <c r="D36">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E36">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F36">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="G36">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="H36">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I36">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J36">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K36">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="L36">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>200406</v>
+        <v>200405</v>
       </c>
       <c r="B37">
-        <v>14669</v>
+        <v>13983</v>
       </c>
       <c r="C37">
-        <v>900</v>
+        <v>1037</v>
       </c>
       <c r="D37">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="E37">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F37">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G37">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H37">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I37">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J37">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="K37">
-        <v>718</v>
+        <v>640</v>
       </c>
       <c r="L37">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N37">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>200407</v>
+        <v>200406</v>
       </c>
       <c r="B38">
         <v>14669</v>
       </c>
       <c r="C38">
-        <v>541</v>
+        <v>900</v>
       </c>
       <c r="D38">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E38">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="F38">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G38">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="H38">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J38">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="K38">
-        <v>594</v>
+        <v>718</v>
       </c>
       <c r="L38">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>200408</v>
+        <v>200407</v>
       </c>
       <c r="B39">
-        <v>15058</v>
+        <v>14669</v>
       </c>
       <c r="C39">
-        <v>437</v>
+        <v>541</v>
       </c>
       <c r="D39">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="E39">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F39">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="G39">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="H39">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="I39">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J39">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K39">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="L39">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N39">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>200409</v>
+        <v>200408</v>
       </c>
       <c r="B40">
-        <v>14716</v>
+        <v>15058</v>
       </c>
       <c r="C40">
-        <v>335</v>
+        <v>437</v>
       </c>
       <c r="D40">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E40">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F40">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="G40">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="H40">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="I40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K40">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L40">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N40">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>200410</v>
+        <v>200409</v>
       </c>
       <c r="B41">
-        <v>13600</v>
+        <v>14716</v>
       </c>
       <c r="C41">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="D41">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E41">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="F41">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G41">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="H41">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="I41">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J41">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="K41">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="L41">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N41">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>200411</v>
+        <v>200410</v>
       </c>
       <c r="B42">
-        <v>11580</v>
+        <v>13600</v>
       </c>
       <c r="C42">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D42">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="E42">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F42">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G42">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="H42">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="I42">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J42">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="K42">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="L42">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>200412</v>
+        <v>200411</v>
       </c>
       <c r="B43">
-        <v>11192</v>
+        <v>11580</v>
       </c>
       <c r="C43">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="D43">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E43">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F43">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="G43">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="H43">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J43">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K43">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N43">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>200413</v>
+        <v>200412</v>
       </c>
       <c r="B44">
-        <v>13055</v>
+        <v>11192</v>
       </c>
       <c r="C44">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D44">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="E44">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F44">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="G44">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="H44">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="K44">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="L44">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>46</v>
@@ -2331,427 +2331,427 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>200414</v>
+        <v>200413</v>
       </c>
       <c r="B45">
-        <v>13414</v>
+        <v>13055</v>
       </c>
       <c r="C45">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D45">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E45">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="F45">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="G45">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H45">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I45">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J45">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="K45">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="L45">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N45">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>200415</v>
+        <v>200414</v>
       </c>
       <c r="B46">
-        <v>13443</v>
+        <v>13414</v>
       </c>
       <c r="C46">
-        <v>164</v>
+        <v>382</v>
       </c>
       <c r="D46">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E46">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="F46">
-        <v>449</v>
+        <v>319</v>
       </c>
       <c r="G46">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="H46">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I46">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J46">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K46">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="L46">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N46">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>200416</v>
+        <v>200415</v>
       </c>
       <c r="B47">
-        <v>13030</v>
+        <v>13443</v>
       </c>
       <c r="C47">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D47">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="E47">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="F47">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="G47">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H47">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="I47">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J47">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K47">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="L47">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N47">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>200417</v>
+        <v>200416</v>
       </c>
       <c r="B48">
-        <v>12537</v>
+        <v>13030</v>
       </c>
       <c r="C48">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D48">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E48">
         <v>179</v>
       </c>
       <c r="F48">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G48">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H48">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="I48">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J48">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="K48">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="L48">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>200418</v>
+        <v>200417</v>
       </c>
       <c r="B49">
-        <v>10137</v>
+        <v>12537</v>
       </c>
       <c r="C49">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D49">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="E49">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F49">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="G49">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="H49">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I49">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J49">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="K49">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N49">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>200419</v>
+        <v>200418</v>
       </c>
       <c r="B50">
-        <v>10300</v>
+        <v>10137</v>
       </c>
       <c r="C50">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D50">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E50">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F50">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="G50">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="H50">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="I50">
+        <v>19</v>
+      </c>
+      <c r="J50">
+        <v>95</v>
+      </c>
+      <c r="K50">
+        <v>479</v>
+      </c>
+      <c r="L50">
+        <v>46</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
         <v>35</v>
-      </c>
-      <c r="J50">
-        <v>103</v>
-      </c>
-      <c r="K50">
-        <v>455</v>
-      </c>
-      <c r="L50">
-        <v>56</v>
-      </c>
-      <c r="M50">
-        <v>7</v>
-      </c>
-      <c r="N50">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>200420</v>
+        <v>200419</v>
       </c>
       <c r="B51">
-        <v>11405</v>
+        <v>10300</v>
       </c>
       <c r="C51">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D51">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="E51">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F51">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="G51">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H51">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J51">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K51">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L51">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N51">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>200421</v>
+        <v>200420</v>
       </c>
       <c r="B52">
-        <v>12233</v>
+        <v>11405</v>
       </c>
       <c r="C52">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D52">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E52">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F52">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G52">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H52">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="I52">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J52">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="K52">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="L52">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M52">
         <v>10</v>
       </c>
       <c r="N52">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>200422</v>
+        <v>200421</v>
       </c>
       <c r="B53">
-        <v>12632</v>
+        <v>12233</v>
       </c>
       <c r="C53">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D53">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E53">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F53">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G53">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H53">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="I53">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J53">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L53">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N53">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>200423</v>
+        <v>200422</v>
       </c>
       <c r="B54">
-        <v>12417</v>
+        <v>12632</v>
       </c>
       <c r="C54">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E54">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F54">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G54">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H54">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I54">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J54">
         <v>147</v>
@@ -2760,10 +2760,10 @@
         <v>487</v>
       </c>
       <c r="L54">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N54">
         <v>42</v>
@@ -2771,791 +2771,791 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>200424</v>
+        <v>200423</v>
       </c>
       <c r="B55">
-        <v>12427</v>
+        <v>12417</v>
       </c>
       <c r="C55">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D55">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E55">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F55">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G55">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H55">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I55">
         <v>32</v>
       </c>
       <c r="J55">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K55">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="L55">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N55">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>200425</v>
+        <v>200424</v>
       </c>
       <c r="B56">
-        <v>10367</v>
+        <v>12427</v>
       </c>
       <c r="C56">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D56">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="E56">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F56">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="G56">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="H56">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="I56">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J56">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K56">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="L56">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>200426</v>
+        <v>200425</v>
       </c>
       <c r="B57">
-        <v>10614</v>
+        <v>10367</v>
       </c>
       <c r="C57">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D57">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E57">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F57">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="G57">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="H57">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I57">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J57">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L57">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M57">
         <v>14</v>
       </c>
       <c r="N57">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>200427</v>
+        <v>200426</v>
       </c>
       <c r="B58">
-        <v>11841</v>
+        <v>10614</v>
       </c>
       <c r="C58">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D58">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E58">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F58">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G58">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="H58">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I58">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J58">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="L58">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>200428</v>
+        <v>200427</v>
       </c>
       <c r="B59">
-        <v>11544</v>
+        <v>11841</v>
       </c>
       <c r="C59">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D59">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E59">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F59">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="G59">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="H59">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="I59">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J59">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="K59">
-        <v>393</v>
+        <v>469</v>
       </c>
       <c r="L59">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N59">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>200429</v>
+        <v>200428</v>
       </c>
       <c r="B60">
-        <v>12684</v>
+        <v>11544</v>
       </c>
       <c r="C60">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E60">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F60">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="G60">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="H60">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="I60">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J60">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K60">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="L60">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N60">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>200430</v>
+        <v>200429</v>
       </c>
       <c r="B61">
-        <v>13146</v>
+        <v>12684</v>
       </c>
       <c r="C61">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D61">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E61">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F61">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G61">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H61">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="I61">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J61">
         <v>153</v>
       </c>
       <c r="K61">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="L61">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N61">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>200501</v>
+        <v>200430</v>
       </c>
       <c r="B62">
-        <v>12851</v>
+        <v>13146</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="E62">
         <v>201</v>
       </c>
       <c r="F62">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G62">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="H62">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I62">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J62">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K62">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="L62">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N62">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>200502</v>
+        <v>200501</v>
       </c>
       <c r="B63">
-        <v>8432</v>
+        <v>12851</v>
       </c>
       <c r="C63">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="E63">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F63">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="H63">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="I63">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J63">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="K63">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="L63">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N63">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>200503</v>
+        <v>200502</v>
       </c>
       <c r="B64">
-        <v>8964</v>
+        <v>8432</v>
       </c>
       <c r="C64">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D64">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E64">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F64">
         <v>106</v>
       </c>
       <c r="G64">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H64">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I64">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="J64">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="L64">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N64">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>200504</v>
+        <v>200503</v>
       </c>
       <c r="B65">
-        <v>9792</v>
+        <v>8964</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D65">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F65">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G65">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I65">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J65">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K65">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="L65">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N65">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>200505</v>
+        <v>200504</v>
       </c>
       <c r="B66">
-        <v>9895</v>
+        <v>9792</v>
       </c>
       <c r="C66">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D66">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="E66">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F66">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G66">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="I66">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J66">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="K66">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="L66">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N66">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>200506</v>
+        <v>200505</v>
       </c>
       <c r="B67">
-        <v>10472</v>
+        <v>9895</v>
       </c>
       <c r="C67">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D67">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E67">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F67">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G67">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="I67">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J67">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K67">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L67">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N67">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>200507</v>
+        <v>200506</v>
       </c>
       <c r="B68">
-        <v>11235</v>
+        <v>10472</v>
       </c>
       <c r="C68">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D68">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E68">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F68">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G68">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>117</v>
       </c>
       <c r="I68">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J68">
         <v>115</v>
       </c>
       <c r="K68">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="L68">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N68">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>200508</v>
+        <v>200507</v>
       </c>
       <c r="B69">
-        <v>11052</v>
+        <v>11235</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D69">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E69">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F69">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G69">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H69">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I69">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J69">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K69">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L69">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M69">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>200509</v>
+        <v>200508</v>
       </c>
       <c r="B70">
-        <v>8631</v>
+        <v>11052</v>
       </c>
       <c r="C70">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="E70">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F70">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G70">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H70">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I70">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J70">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="K70">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="L70">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N70">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>200510</v>
+        <v>200509</v>
       </c>
       <c r="B71">
-        <v>8895</v>
+        <v>8631</v>
       </c>
       <c r="C71">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D71">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E71">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F71">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G71">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H71">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I71">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J71">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K71">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L71">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N71">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>200511</v>
+        <v>200510</v>
       </c>
       <c r="B72">
-        <v>10227</v>
+        <v>8895</v>
       </c>
       <c r="C72">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D72">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E72">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F72">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G72">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H72">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I72">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J72">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K72">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L72">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M72">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N72">
         <v>22</v>
@@ -3563,439 +3563,439 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>200512</v>
+        <v>200511</v>
       </c>
       <c r="B73">
-        <v>10211</v>
+        <v>10227</v>
       </c>
       <c r="C73">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D73">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E73">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F73">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G73">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H73">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I73">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J73">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="K73">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="L73">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M73">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N73">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>200513</v>
+        <v>200512</v>
       </c>
       <c r="B74">
-        <v>3887</v>
+        <v>10211</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D74">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="E74">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="F74">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="G74">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H74">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="J74">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="K74">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="L74">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N74">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>200514</v>
+        <v>200513</v>
       </c>
       <c r="B75">
-        <v>10745</v>
+        <v>3887</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="E75">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="F75">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="G75">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H75">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I75">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="K75">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="L75">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>200515</v>
+        <v>200514</v>
       </c>
       <c r="B76">
-        <v>11225</v>
+        <v>10745</v>
       </c>
       <c r="C76">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E76">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F76">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G76">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H76">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I76">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="J76">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K76">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="L76">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M76">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N76">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>200516</v>
+        <v>200515</v>
       </c>
       <c r="B77">
-        <v>8468</v>
+        <v>11225</v>
       </c>
       <c r="C77">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D77">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E77">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F77">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G77">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H77">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I77">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J77">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="K77">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="L77">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N77">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>200517</v>
+        <v>200516</v>
       </c>
       <c r="B78">
-        <v>9462</v>
+        <v>8468</v>
       </c>
       <c r="C78">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D78">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E78">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F78">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G78">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H78">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I78">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J78">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K78">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="L78">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N78">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>200518</v>
+        <v>200517</v>
       </c>
       <c r="B79">
-        <v>10303</v>
+        <v>9462</v>
       </c>
       <c r="C79">
+        <v>32</v>
+      </c>
+      <c r="D79">
+        <v>238</v>
+      </c>
+      <c r="E79">
+        <v>150</v>
+      </c>
+      <c r="F79">
+        <v>108</v>
+      </c>
+      <c r="G79">
+        <v>67</v>
+      </c>
+      <c r="H79">
+        <v>101</v>
+      </c>
+      <c r="I79">
+        <v>70</v>
+      </c>
+      <c r="J79">
+        <v>86</v>
+      </c>
+      <c r="K79">
+        <v>308</v>
+      </c>
+      <c r="L79">
+        <v>73</v>
+      </c>
+      <c r="M79">
         <v>26</v>
       </c>
-      <c r="D79">
-        <v>236</v>
-      </c>
-      <c r="E79">
-        <v>170</v>
-      </c>
-      <c r="F79">
-        <v>113</v>
-      </c>
-      <c r="G79">
-        <v>70</v>
-      </c>
-      <c r="H79">
-        <v>93</v>
-      </c>
-      <c r="I79">
-        <v>64</v>
-      </c>
-      <c r="J79">
-        <v>85</v>
-      </c>
-      <c r="K79">
-        <v>306</v>
-      </c>
-      <c r="L79">
-        <v>79</v>
-      </c>
-      <c r="M79">
-        <v>17</v>
-      </c>
       <c r="N79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>200519</v>
+        <v>200518</v>
       </c>
       <c r="B80">
-        <v>10635</v>
+        <v>10303</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="E80">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F80">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G80">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H80">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I80">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="J80">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="K80">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="L80">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M80">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N80">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>200520</v>
+        <v>200519</v>
       </c>
       <c r="B81">
-        <v>12407</v>
+        <v>10635</v>
       </c>
       <c r="C81">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E81">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F81">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G81">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H81">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I81">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J81">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="K81">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="L81">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N81">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>200521</v>
+        <v>200520</v>
       </c>
       <c r="B82">
-        <v>12544</v>
+        <v>12407</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E82">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F82">
         <v>110</v>
       </c>
       <c r="G82">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H82">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I82">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J82">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="K82">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="L82">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M82">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N82">
         <v>29</v>
@@ -4003,19 +4003,19 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>200522</v>
+        <v>200521</v>
       </c>
       <c r="B83">
-        <v>12298</v>
+        <v>12544</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D83">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E83">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F83">
         <v>110</v>
@@ -4024,1254 +4024,1254 @@
         <v>48</v>
       </c>
       <c r="H83">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="I83">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="J83">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K83">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L83">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N83">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>200523</v>
+        <v>200522</v>
       </c>
       <c r="B84">
-        <v>3549</v>
+        <v>12298</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D84">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="E84">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="F84">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G84">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H84">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="J84">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="K84">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="L84">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="N84">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>200524</v>
+        <v>200523</v>
       </c>
       <c r="B85">
-        <v>8698</v>
+        <v>3549</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="E85">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="F85">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="G85">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H85">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I85">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="K85">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="L85">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M85">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N85">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>200525</v>
+        <v>200524</v>
       </c>
       <c r="B86">
-        <v>9785</v>
+        <v>8698</v>
       </c>
       <c r="C86">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E86">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F86">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G86">
         <v>48</v>
       </c>
       <c r="H86">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I86">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J86">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="K86">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L86">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M86">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N86">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>200526</v>
+        <v>200525</v>
       </c>
       <c r="B87">
-        <v>10673</v>
+        <v>9785</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E87">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F87">
         <v>108</v>
       </c>
       <c r="G87">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H87">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I87">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="J87">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="L87">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M87">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N87">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>200527</v>
+        <v>200526</v>
       </c>
       <c r="B88">
-        <v>12200</v>
+        <v>10673</v>
       </c>
       <c r="C88">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D88">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E88">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F88">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G88">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H88">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I88">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J88">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="K88">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L88">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M88">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N88">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>200528</v>
+        <v>200527</v>
       </c>
       <c r="B89">
-        <v>12393</v>
+        <v>12200</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D89">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E89">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F89">
         <v>111</v>
       </c>
       <c r="G89">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H89">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I89">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J89">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K89">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L89">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M89">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N89">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>200529</v>
+        <v>200528</v>
       </c>
       <c r="B90">
-        <v>12087</v>
+        <v>12393</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E90">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F90">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G90">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H90">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I90">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="J90">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="K90">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L90">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M90">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N90">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>200530</v>
+        <v>200529</v>
       </c>
       <c r="B91">
-        <v>9231</v>
+        <v>12087</v>
       </c>
       <c r="C91">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D91">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E91">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="F91">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G91">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H91">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I91">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="J91">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="K91">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L91">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="M91">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N91">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>200531</v>
+        <v>200530</v>
       </c>
       <c r="B92">
-        <v>10484</v>
+        <v>9231</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D92">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E92">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F92">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G92">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>76</v>
+      </c>
+      <c r="J92">
+        <v>126</v>
+      </c>
+      <c r="K92">
+        <v>349</v>
+      </c>
+      <c r="L92">
+        <v>68</v>
+      </c>
+      <c r="M92">
         <v>51</v>
       </c>
-      <c r="H92">
-        <v>99</v>
-      </c>
-      <c r="I92">
-        <v>95</v>
-      </c>
-      <c r="J92">
-        <v>134</v>
-      </c>
-      <c r="K92">
-        <v>344</v>
-      </c>
-      <c r="L92">
-        <v>83</v>
-      </c>
-      <c r="M92">
-        <v>56</v>
-      </c>
       <c r="N92">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>200601</v>
+        <v>200531</v>
       </c>
       <c r="B93">
-        <v>11632</v>
+        <v>10484</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E93">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F93">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G93">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H93">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="I93">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J93">
         <v>134</v>
       </c>
       <c r="K93">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L93">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M93">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N93">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>200602</v>
+        <v>200601</v>
       </c>
       <c r="B94">
-        <v>11910</v>
+        <v>11632</v>
       </c>
       <c r="C94">
         <v>11</v>
       </c>
       <c r="D94">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E94">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F94">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G94">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="H94">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I94">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J94">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="K94">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L94">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M94">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N94">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>200603</v>
+        <v>200602</v>
       </c>
       <c r="B95">
-        <v>12890</v>
+        <v>11910</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E95">
         <v>243</v>
       </c>
       <c r="F95">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G95">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H95">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I95">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="J95">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K95">
         <v>366</v>
       </c>
       <c r="L95">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M95">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N95">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>200604</v>
+        <v>200603</v>
       </c>
       <c r="B96">
-        <v>13521</v>
+        <v>12890</v>
       </c>
       <c r="C96">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D96">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E96">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F96">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="G96">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H96">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="I96">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J96">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K96">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L96">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M96">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N96">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>200605</v>
+        <v>200604</v>
       </c>
       <c r="B97">
-        <v>13278</v>
+        <v>13521</v>
       </c>
       <c r="C97">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D97">
         <v>265</v>
       </c>
       <c r="E97">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F97">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G97">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H97">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I97">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J97">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K97">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L97">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M97">
         <v>56</v>
       </c>
       <c r="N97">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>200606</v>
+        <v>200605</v>
       </c>
       <c r="B98">
-        <v>10512</v>
+        <v>13278</v>
       </c>
       <c r="C98">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E98">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="F98">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G98">
         <v>112</v>
       </c>
       <c r="H98">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="I98">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="J98">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="K98">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L98">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="M98">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N98">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>200607</v>
+        <v>200606</v>
       </c>
       <c r="B99">
-        <v>11762</v>
+        <v>10512</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D99">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="E99">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F99">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G99">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="H99">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I99">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="J99">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K99">
         <v>396</v>
       </c>
       <c r="L99">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="M99">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N99">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <v>200608</v>
+        <v>200607</v>
       </c>
       <c r="B100">
-        <v>12731</v>
+        <v>11762</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="E100">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F100">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G100">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H100">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I100">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J100">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K100">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L100">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="M100">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N100">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>200609</v>
+        <v>200608</v>
       </c>
       <c r="B101">
-        <v>13257</v>
+        <v>12731</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D101">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E101">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F101">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="G101">
         <v>149</v>
       </c>
       <c r="H101">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I101">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J101">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="K101">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="L101">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="M101">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N101">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>200610</v>
+        <v>200609</v>
       </c>
       <c r="B102">
-        <v>14098</v>
+        <v>13257</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D102">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E102">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F102">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G102">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H102">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I102">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="J102">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K102">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="L102">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M102">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N102">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>200611</v>
+        <v>200610</v>
       </c>
       <c r="B103">
-        <v>15203</v>
+        <v>14098</v>
       </c>
       <c r="C103">
         <v>10</v>
       </c>
       <c r="D103">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="E103">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F103">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G103">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H103">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="I103">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J103">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K103">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="L103">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="M103">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N103">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <v>200612</v>
+        <v>200611</v>
       </c>
       <c r="B104">
-        <v>14835</v>
+        <v>15203</v>
       </c>
       <c r="C104">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E104">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="F104">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G104">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H104">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I104">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="J104">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K104">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L104">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M104">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="N104">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>200613</v>
+        <v>200612</v>
       </c>
       <c r="B105">
-        <v>11550</v>
+        <v>14835</v>
       </c>
       <c r="C105">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D105">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E105">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="F105">
         <v>237</v>
       </c>
       <c r="G105">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H105">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="I105">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J105">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="K105">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L105">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M105">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N105">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>200614</v>
+        <v>200613</v>
       </c>
       <c r="B106">
-        <v>13051</v>
+        <v>11550</v>
       </c>
       <c r="C106">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D106">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="E106">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F106">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G106">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H106">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="I106">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="J106">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K106">
         <v>446</v>
       </c>
       <c r="L106">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="M106">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N106">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>200615</v>
+        <v>200614</v>
       </c>
       <c r="B107">
-        <v>13902</v>
+        <v>13051</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D107">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E107">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F107">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G107">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H107">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I107">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="J107">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K107">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L107">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M107">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N107">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>200616</v>
+        <v>200615</v>
       </c>
       <c r="B108">
-        <v>14160</v>
+        <v>13902</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D108">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E108">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F108">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G108">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H108">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I108">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="J108">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="K108">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="L108">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="M108">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N108">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <v>200617</v>
+        <v>200616</v>
       </c>
       <c r="B109">
-        <v>14520</v>
+        <v>14160</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="E109">
         <v>262</v>
       </c>
       <c r="F109">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G109">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H109">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I109">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="J109">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K109">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="L109">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M109">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="N109">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
-        <v>200618</v>
+        <v>200617</v>
       </c>
       <c r="B110">
-        <v>15603</v>
+        <v>14520</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="E110">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F110">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G110">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H110">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="I110">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J110">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K110">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="L110">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="M110">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N110">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>200619</v>
+        <v>200618</v>
       </c>
       <c r="B111">
-        <v>15335</v>
+        <v>15603</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E111">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F111">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G111">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H111">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I111">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J111">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="K111">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L111">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M111">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N111">
         <v>25</v>
@@ -5279,89 +5279,133 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
-        <v>200620</v>
+        <v>200619</v>
       </c>
       <c r="B112">
-        <v>12646</v>
+        <v>15335</v>
       </c>
       <c r="C112">
         <v>12</v>
       </c>
       <c r="D112">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="E112">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="F112">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G112">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H112">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="I112">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J112">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="K112">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="L112">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="M112">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N112">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
+        <v>200620</v>
+      </c>
+      <c r="B113">
+        <v>12646</v>
+      </c>
+      <c r="C113">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>366</v>
+      </c>
+      <c r="E113">
+        <v>240</v>
+      </c>
+      <c r="F113">
+        <v>251</v>
+      </c>
+      <c r="G113">
+        <v>156</v>
+      </c>
+      <c r="H113">
+        <v>158</v>
+      </c>
+      <c r="I113">
+        <v>138</v>
+      </c>
+      <c r="J113">
+        <v>190</v>
+      </c>
+      <c r="K113">
+        <v>460</v>
+      </c>
+      <c r="L113">
+        <v>108</v>
+      </c>
+      <c r="M113">
+        <v>110</v>
+      </c>
+      <c r="N113">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
         <v>200621</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>12240</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>4</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>394</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>224</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <v>249</v>
       </c>
-      <c r="G113">
+      <c r="G114">
         <v>149</v>
       </c>
-      <c r="H113">
+      <c r="H114">
         <v>167</v>
       </c>
-      <c r="I113">
+      <c r="I114">
         <v>92</v>
       </c>
-      <c r="J113">
+      <c r="J114">
         <v>202</v>
       </c>
-      <c r="K113">
+      <c r="K114">
         <v>414</v>
       </c>
-      <c r="L113">
+      <c r="L114">
         <v>114</v>
       </c>
-      <c r="M113">
+      <c r="M114">
         <v>79</v>
       </c>
-      <c r="N113">
+      <c r="N114">
         <v>23</v>
       </c>
     </row>
